--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PRIVCON_yoy_AVERAGE_10_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PRIVCON_yoy_AVERAGE_10_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,18 +417,21 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>39400</v>
+        <v>39583</v>
       </c>
       <c r="B2">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D2">
-        <v>2008</v>
+        <v>2009</v>
+      </c>
+      <c r="E2">
+        <v>1.003756253906252</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>39583</v>
+        <v>39765</v>
       </c>
       <c r="B3">
         <v>2008</v>
@@ -437,26 +440,29 @@
         <v>2009</v>
       </c>
       <c r="E3">
-        <v>0.8905125301442052</v>
+        <v>0.8212989654785341</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>39765</v>
+        <v>39948</v>
       </c>
       <c r="B4">
-        <v>2008</v>
+        <v>2009</v>
+      </c>
+      <c r="C4">
+        <v>1.287693099940079</v>
       </c>
       <c r="D4">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E4">
-        <v>1.141887928483976</v>
+        <v>1.224010362214401</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>39948</v>
+        <v>40130</v>
       </c>
       <c r="B5">
         <v>2009</v>
@@ -468,29 +474,29 @@
         <v>2010</v>
       </c>
       <c r="E5">
-        <v>-0.4641323501900163</v>
+        <v>1.183007486132071</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>40130</v>
+        <v>40310</v>
       </c>
       <c r="B6">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C6">
-        <v>1.218009596270675</v>
+        <v>0.5167526861706184</v>
       </c>
       <c r="D6">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E6">
-        <v>0.4727443609437554</v>
+        <v>0.9718821796794952</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>40310</v>
+        <v>40494</v>
       </c>
       <c r="B7">
         <v>2010</v>
@@ -502,29 +508,29 @@
         <v>2011</v>
       </c>
       <c r="E7">
-        <v>0.7953247379026918</v>
+        <v>1.015842920196763</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>40494</v>
+        <v>40676</v>
       </c>
       <c r="B8">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C8">
-        <v>0.5544720893820188</v>
+        <v>1.187829657075357</v>
       </c>
       <c r="D8">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="E8">
-        <v>1.249231320663591</v>
+        <v>1.00065194548169</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>40676</v>
+        <v>40862</v>
       </c>
       <c r="B9">
         <v>2011</v>
@@ -536,29 +542,29 @@
         <v>2012</v>
       </c>
       <c r="E9">
-        <v>1.205864328335093</v>
+        <v>0.9092565586104273</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>40862</v>
+        <v>41044</v>
       </c>
       <c r="B10">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C10">
-        <v>1.173294700162031</v>
+        <v>1.071158385438342</v>
       </c>
       <c r="D10">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="E10">
-        <v>1.1299540917866</v>
+        <v>0.912403143334517</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>41044</v>
+        <v>41228</v>
       </c>
       <c r="B11">
         <v>2012</v>
@@ -570,29 +576,29 @@
         <v>2013</v>
       </c>
       <c r="E11">
-        <v>1.508698476056081</v>
+        <v>1.236730309040235</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>41228</v>
+        <v>41409</v>
       </c>
       <c r="B12">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C12">
-        <v>1.180518841971723</v>
+        <v>0.9553801317191413</v>
       </c>
       <c r="D12">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E12">
-        <v>0.9276272455014611</v>
+        <v>1.066801818459595</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>41409</v>
+        <v>41592</v>
       </c>
       <c r="B13">
         <v>2013</v>
@@ -604,29 +610,29 @@
         <v>2014</v>
       </c>
       <c r="E13">
-        <v>1.129954091786578</v>
+        <v>1.029015928490629</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>41592</v>
+        <v>41774</v>
       </c>
       <c r="B14">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C14">
-        <v>0.9276272455014611</v>
+        <v>1.190496724073231</v>
       </c>
       <c r="D14">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="E14">
-        <v>1.30704451907393</v>
+        <v>1.154811676806311</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>41774</v>
+        <v>41957</v>
       </c>
       <c r="B15">
         <v>2014</v>
@@ -638,29 +644,29 @@
         <v>2015</v>
       </c>
       <c r="E15">
-        <v>1.715659375508571</v>
+        <v>1.358148715145191</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>41957</v>
+        <v>42137</v>
       </c>
       <c r="B16">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C16">
-        <v>1.265990289415564</v>
+        <v>1.5464392869869</v>
       </c>
       <c r="D16">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E16">
-        <v>1.578526694644333</v>
+        <v>1.247870081683522</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>42137</v>
+        <v>42321</v>
       </c>
       <c r="B17">
         <v>2015</v>
@@ -672,29 +678,29 @@
         <v>2016</v>
       </c>
       <c r="E17">
-        <v>1.470010055742232</v>
+        <v>1.528208222695326</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>42321</v>
+        <v>42503</v>
       </c>
       <c r="B18">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C18">
-        <v>1.642047742738506</v>
+        <v>1.701952652941463</v>
       </c>
       <c r="D18">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E18">
-        <v>1.725489977756145</v>
+        <v>1.637918813512695</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>42503</v>
+        <v>42689</v>
       </c>
       <c r="B19">
         <v>2016</v>
@@ -706,29 +712,29 @@
         <v>2017</v>
       </c>
       <c r="E19">
-        <v>1.616008876909447</v>
+        <v>1.634928000057778</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>42689</v>
+        <v>42867</v>
       </c>
       <c r="B20">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C20">
-        <v>1.66194179127146</v>
+        <v>1.580693894992691</v>
       </c>
       <c r="D20">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E20">
-        <v>1.501780248496876</v>
+        <v>1.610567777412109</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>42867</v>
+        <v>43053</v>
       </c>
       <c r="B21">
         <v>2017</v>
@@ -740,63 +746,63 @@
         <v>2018</v>
       </c>
       <c r="E21">
-        <v>1.590469215865564</v>
+        <v>1.67176973076042</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>43053</v>
+        <v>43145</v>
       </c>
       <c r="B22">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C22">
-        <v>1.609733807897773</v>
+        <v>1.651937828695615</v>
       </c>
       <c r="D22">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E22">
-        <v>1.755561861459198</v>
+        <v>1.63821551487775</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>43145</v>
+        <v>43235</v>
       </c>
       <c r="B23">
         <v>2018</v>
       </c>
       <c r="C23">
-        <v>1.651362568149239</v>
+        <v>1.646565058924154</v>
       </c>
       <c r="D23">
         <v>2019</v>
       </c>
       <c r="E23">
-        <v>1.769319546243286</v>
+        <v>1.636439239090515</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>43235</v>
+        <v>43326</v>
       </c>
       <c r="B24">
         <v>2018</v>
       </c>
       <c r="C24">
-        <v>1.641178243814534</v>
+        <v>1.642460763882414</v>
       </c>
       <c r="D24">
         <v>2019</v>
       </c>
       <c r="E24">
-        <v>1.794850390332114</v>
+        <v>1.62621273827539</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>43326</v>
+        <v>43418</v>
       </c>
       <c r="B25">
         <v>2018</v>
@@ -808,63 +814,63 @@
         <v>2019</v>
       </c>
       <c r="E25">
-        <v>1.771972203993366</v>
+        <v>1.603287858019664</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>43418</v>
+        <v>43510</v>
       </c>
       <c r="B26">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C26">
-        <v>1.641178243814534</v>
+        <v>1.504616869537312</v>
       </c>
       <c r="D26">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E26">
-        <v>1.584399974297779</v>
+        <v>1.599505522959732</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>43510</v>
+        <v>43600</v>
       </c>
       <c r="B27">
         <v>2019</v>
       </c>
       <c r="C27">
-        <v>1.436930974076023</v>
+        <v>1.619750436871126</v>
       </c>
       <c r="D27">
         <v>2020</v>
       </c>
       <c r="E27">
-        <v>1.164871729964068</v>
+        <v>1.669486277487398</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>43600</v>
+        <v>43691</v>
       </c>
       <c r="B28">
         <v>2019</v>
       </c>
       <c r="C28">
-        <v>1.233734107395001</v>
+        <v>1.242963308065193</v>
       </c>
       <c r="D28">
         <v>2020</v>
       </c>
       <c r="E28">
-        <v>0.9628637208823232</v>
+        <v>1.082447181878954</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>43691</v>
+        <v>43783</v>
       </c>
       <c r="B29">
         <v>2019</v>
@@ -876,63 +882,63 @@
         <v>2020</v>
       </c>
       <c r="E29">
-        <v>0.6359715250869202</v>
+        <v>0.8408455317168162</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>43783</v>
+        <v>43875</v>
       </c>
       <c r="B30">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C30">
-        <v>1.183163144818633</v>
+        <v>0.6216637650511503</v>
       </c>
       <c r="D30">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E30">
-        <v>0.6125740497801901</v>
+        <v>1.126729649114599</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>43875</v>
+        <v>43966</v>
       </c>
       <c r="B31">
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>-2.611320921915661</v>
+        <v>0.2954364073068261</v>
       </c>
       <c r="D31">
         <v>2021</v>
       </c>
       <c r="E31">
-        <v>3.850129105119438</v>
+        <v>0.8326407735962826</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>43966</v>
+        <v>44068</v>
       </c>
       <c r="B32">
         <v>2020</v>
       </c>
       <c r="C32">
-        <v>-3.450801915528212</v>
+        <v>-3.662861831460751</v>
       </c>
       <c r="D32">
         <v>2021</v>
       </c>
       <c r="E32">
-        <v>4.307664622184548</v>
+        <v>-1.110565553434917</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>44068</v>
+        <v>44159</v>
       </c>
       <c r="B33">
         <v>2020</v>
@@ -944,63 +950,63 @@
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>2.927704432898959</v>
+        <v>-1.875058665585216</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>44159</v>
+        <v>44251</v>
       </c>
       <c r="B34">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C34">
-        <v>-3.662861831460751</v>
+        <v>-3.604628722764358</v>
       </c>
       <c r="D34">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E34">
-        <v>0.3647198962692944</v>
+        <v>-2.856219939917704</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>44251</v>
+        <v>44341</v>
       </c>
       <c r="B35">
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>-0.4361073826740891</v>
+        <v>-1.564297238929013</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>7.28622760880111</v>
+        <v>0.1548119563699935</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>44341</v>
+        <v>44432</v>
       </c>
       <c r="B36">
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>0.1757848091566316</v>
+        <v>0.1010915562932313</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>9.515221393159411</v>
+        <v>6.64637963114707</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>44432</v>
+        <v>44525</v>
       </c>
       <c r="B37">
         <v>2021</v>
@@ -1012,63 +1018,63 @@
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>9.892324944215902</v>
+        <v>5.03478667886097</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>44525</v>
+        <v>44617</v>
       </c>
       <c r="B38">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C38">
-        <v>0.1010915562932313</v>
+        <v>5.220550987750228</v>
       </c>
       <c r="D38">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E38">
-        <v>6.577442533483757</v>
+        <v>1.043506288584606</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>44617</v>
+        <v>44706</v>
       </c>
       <c r="B39">
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>6.173185202525522</v>
+        <v>5.937304773291885</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>4.358310855341885</v>
+        <v>2.150399152794202</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>44706</v>
+        <v>44798</v>
       </c>
       <c r="B40">
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>6.15369818068785</v>
+        <v>5.793673192389748</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>3.641402330987509</v>
+        <v>1.728278600643907</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>44798</v>
+        <v>44890</v>
       </c>
       <c r="B41">
         <v>2022</v>
@@ -1080,63 +1086,63 @@
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>-1.030443073022624</v>
+        <v>2.399708479013141</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>44890</v>
+        <v>44981</v>
       </c>
       <c r="B42">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C42">
-        <v>5.793673192389748</v>
+        <v>0.156542203858212</v>
       </c>
       <c r="D42">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E42">
-        <v>-0.4918103610675129</v>
+        <v>2.138492443986739</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>44981</v>
+        <v>45071</v>
       </c>
       <c r="B43">
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>-0.234006599140768</v>
+        <v>-0.2621830498131694</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>1.289162234149188</v>
+        <v>1.878976297039481</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45071</v>
+        <v>45163</v>
       </c>
       <c r="B44">
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>-0.2922548206748199</v>
+        <v>-0.3788601787194756</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>1.658286804611153</v>
+        <v>2.181307424743695</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45163</v>
+        <v>45254</v>
       </c>
       <c r="B45">
         <v>2023</v>
@@ -1148,63 +1154,63 @@
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>1.096154841579633</v>
+        <v>0.8520283695166997</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45254</v>
+        <v>45345</v>
       </c>
       <c r="B46">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C46">
-        <v>-0.3788601787194756</v>
+        <v>0.005756553697899847</v>
       </c>
       <c r="D46">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="E46">
-        <v>0.5341373531255966</v>
+        <v>-0.1096192596443557</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45345</v>
+        <v>45436</v>
       </c>
       <c r="B47">
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>0.3834998555659386</v>
+        <v>0.0512320434504332</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>1.938634904219727</v>
+        <v>0.2660756331863467</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45436</v>
+        <v>45534</v>
       </c>
       <c r="B48">
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>0.1450123585129193</v>
+        <v>0.05771202657300911</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>1.660123065973873</v>
+        <v>0.2051249733294291</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45534</v>
+        <v>45618</v>
       </c>
       <c r="B49">
         <v>2024</v>
@@ -1216,75 +1222,58 @@
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>1.206367397320696</v>
+        <v>0.299857156820571</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45618</v>
+        <v>45713</v>
       </c>
       <c r="B50">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C50">
-        <v>0.05771202657300911</v>
+        <v>0.4540776569412763</v>
       </c>
       <c r="D50">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="E50">
-        <v>0.8226227460387703</v>
+        <v>-0.1815195499670796</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45713</v>
+        <v>45800</v>
       </c>
       <c r="B51">
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>0.6741729974461208</v>
+        <v>0.5998844096825495</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>0.6176776338479684</v>
+        <v>0.1733734969819434</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45800</v>
+        <v>45891</v>
       </c>
       <c r="B52">
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>0.6213128948874713</v>
+        <v>0.6062046309774693</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>0.5837874231427564</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="2">
-        <v>45891</v>
-      </c>
-      <c r="B53">
-        <v>2025</v>
-      </c>
-      <c r="C53">
-        <v>0.6062046309774693</v>
-      </c>
-      <c r="D53">
-        <v>2026</v>
-      </c>
-      <c r="E53">
-        <v>0.5310616179077465</v>
+        <v>0.3877310837361314</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PRIVCON_yoy_AVERAGE_10_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PRIVCON_yoy_AVERAGE_10_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,863 +417,886 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>39583</v>
+        <v>39400</v>
       </c>
       <c r="B2">
+        <v>2007</v>
+      </c>
+      <c r="C2">
+        <v>0.4235526809466261</v>
+      </c>
+      <c r="D2">
         <v>2008</v>
       </c>
-      <c r="D2">
-        <v>2009</v>
-      </c>
       <c r="E2">
-        <v>1.003756253906252</v>
+        <v>0.6439341879002525</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>39765</v>
+        <v>39583</v>
       </c>
       <c r="B3">
         <v>2008</v>
       </c>
+      <c r="C3">
+        <v>-0.3623658873974311</v>
+      </c>
       <c r="D3">
         <v>2009</v>
       </c>
       <c r="E3">
-        <v>0.8212989654785341</v>
+        <v>0.1825419310453658</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>39948</v>
+        <v>39765</v>
       </c>
       <c r="B4">
+        <v>2008</v>
+      </c>
+      <c r="C4">
+        <v>-0.5718076928962645</v>
+      </c>
+      <c r="D4">
         <v>2009</v>
       </c>
-      <c r="C4">
-        <v>1.287693099940079</v>
-      </c>
-      <c r="D4">
-        <v>2010</v>
-      </c>
       <c r="E4">
-        <v>1.224010362214401</v>
+        <v>-0.1800933741311961</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>40130</v>
+        <v>39948</v>
       </c>
       <c r="B5">
         <v>2009</v>
       </c>
       <c r="C5">
-        <v>1.218009596270675</v>
+        <v>-0.009261555895478946</v>
       </c>
       <c r="D5">
         <v>2010</v>
       </c>
       <c r="E5">
-        <v>1.183007486132071</v>
+        <v>0.1145211022186787</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>40310</v>
+        <v>40130</v>
       </c>
       <c r="B6">
+        <v>2009</v>
+      </c>
+      <c r="C6">
+        <v>0.3486139762225005</v>
+      </c>
+      <c r="D6">
         <v>2010</v>
       </c>
-      <c r="C6">
-        <v>0.5167526861706184</v>
-      </c>
-      <c r="D6">
-        <v>2011</v>
-      </c>
       <c r="E6">
-        <v>0.9718821796794952</v>
+        <v>0.1555182634501051</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>40494</v>
+        <v>40310</v>
       </c>
       <c r="B7">
         <v>2010</v>
       </c>
       <c r="C7">
-        <v>0.5544720893820188</v>
+        <v>-1.404263945418582</v>
       </c>
       <c r="D7">
         <v>2011</v>
       </c>
       <c r="E7">
-        <v>1.015842920196763</v>
+        <v>-0.807808220045203</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>40676</v>
+        <v>40494</v>
       </c>
       <c r="B8">
+        <v>2010</v>
+      </c>
+      <c r="C8">
+        <v>-0.1384957661262898</v>
+      </c>
+      <c r="D8">
         <v>2011</v>
       </c>
-      <c r="C8">
-        <v>1.187829657075357</v>
-      </c>
-      <c r="D8">
-        <v>2012</v>
-      </c>
       <c r="E8">
-        <v>1.00065194548169</v>
+        <v>0.6938817570587785</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>40862</v>
+        <v>40676</v>
       </c>
       <c r="B9">
         <v>2011</v>
       </c>
       <c r="C9">
-        <v>1.173294700162031</v>
+        <v>1.692932643509848</v>
       </c>
       <c r="D9">
         <v>2012</v>
       </c>
       <c r="E9">
-        <v>0.9092565586104273</v>
+        <v>0.6262577107155831</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>41044</v>
+        <v>40862</v>
       </c>
       <c r="B10">
+        <v>2011</v>
+      </c>
+      <c r="C10">
+        <v>1.566479473280147</v>
+      </c>
+      <c r="D10">
         <v>2012</v>
       </c>
-      <c r="C10">
-        <v>1.071158385438342</v>
-      </c>
-      <c r="D10">
-        <v>2013</v>
-      </c>
       <c r="E10">
-        <v>0.912403143334517</v>
+        <v>0.9614071719361794</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>41228</v>
+        <v>41044</v>
       </c>
       <c r="B11">
         <v>2012</v>
       </c>
       <c r="C11">
-        <v>1.180518841971723</v>
+        <v>1.020829760720643</v>
       </c>
       <c r="D11">
         <v>2013</v>
       </c>
       <c r="E11">
-        <v>1.236730309040235</v>
+        <v>1.148272834981245</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>41409</v>
+        <v>41228</v>
       </c>
       <c r="B12">
+        <v>2012</v>
+      </c>
+      <c r="C12">
+        <v>0.7307568962936939</v>
+      </c>
+      <c r="D12">
         <v>2013</v>
       </c>
-      <c r="C12">
-        <v>0.9553801317191413</v>
-      </c>
-      <c r="D12">
-        <v>2014</v>
-      </c>
       <c r="E12">
-        <v>1.066801818459595</v>
+        <v>1.09290550768979</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>41592</v>
+        <v>41409</v>
       </c>
       <c r="B13">
         <v>2013</v>
       </c>
       <c r="C13">
-        <v>0.9276272455014611</v>
+        <v>0.6772121200332215</v>
       </c>
       <c r="D13">
         <v>2014</v>
       </c>
       <c r="E13">
-        <v>1.029015928490629</v>
+        <v>1.258913537332895</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>41774</v>
+        <v>41592</v>
       </c>
       <c r="B14">
+        <v>2013</v>
+      </c>
+      <c r="C14">
+        <v>0.818818812164257</v>
+      </c>
+      <c r="D14">
         <v>2014</v>
       </c>
-      <c r="C14">
-        <v>1.190496724073231</v>
-      </c>
-      <c r="D14">
-        <v>2015</v>
-      </c>
       <c r="E14">
-        <v>1.154811676806311</v>
+        <v>0.9607602172681418</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>41957</v>
+        <v>41774</v>
       </c>
       <c r="B15">
         <v>2014</v>
       </c>
       <c r="C15">
-        <v>1.265990289415564</v>
+        <v>1.019715257608911</v>
       </c>
       <c r="D15">
         <v>2015</v>
       </c>
       <c r="E15">
-        <v>1.358148715145191</v>
+        <v>0.9536145745415947</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>42137</v>
+        <v>41957</v>
       </c>
       <c r="B16">
+        <v>2014</v>
+      </c>
+      <c r="C16">
+        <v>0.9180054319587239</v>
+      </c>
+      <c r="D16">
         <v>2015</v>
       </c>
-      <c r="C16">
-        <v>1.5464392869869</v>
-      </c>
-      <c r="D16">
-        <v>2016</v>
-      </c>
       <c r="E16">
-        <v>1.247870081683522</v>
+        <v>1.375398114243209</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>42321</v>
+        <v>42137</v>
       </c>
       <c r="B17">
         <v>2015</v>
       </c>
       <c r="C17">
-        <v>1.642047742738506</v>
+        <v>2.173959184500385</v>
       </c>
       <c r="D17">
         <v>2016</v>
       </c>
       <c r="E17">
-        <v>1.528208222695326</v>
+        <v>1.566646323486043</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>42503</v>
+        <v>42321</v>
       </c>
       <c r="B18">
+        <v>2015</v>
+      </c>
+      <c r="C18">
+        <v>1.984684278296656</v>
+      </c>
+      <c r="D18">
         <v>2016</v>
       </c>
-      <c r="C18">
-        <v>1.701952652941463</v>
-      </c>
-      <c r="D18">
-        <v>2017</v>
-      </c>
       <c r="E18">
-        <v>1.637918813512695</v>
+        <v>1.473274087935805</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>42689</v>
+        <v>42503</v>
       </c>
       <c r="B19">
         <v>2016</v>
       </c>
       <c r="C19">
-        <v>1.66194179127146</v>
+        <v>1.707434489469994</v>
       </c>
       <c r="D19">
         <v>2017</v>
       </c>
       <c r="E19">
-        <v>1.634928000057778</v>
+        <v>1.30258347990615</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>42867</v>
+        <v>42689</v>
       </c>
       <c r="B20">
+        <v>2016</v>
+      </c>
+      <c r="C20">
+        <v>1.755995812646982</v>
+      </c>
+      <c r="D20">
         <v>2017</v>
       </c>
-      <c r="C20">
-        <v>1.580693894992691</v>
-      </c>
-      <c r="D20">
-        <v>2018</v>
-      </c>
       <c r="E20">
-        <v>1.610567777412109</v>
+        <v>1.681032827388362</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>43053</v>
+        <v>42867</v>
       </c>
       <c r="B21">
         <v>2017</v>
       </c>
       <c r="C21">
-        <v>1.609733807897773</v>
+        <v>1.456988786619839</v>
       </c>
       <c r="D21">
         <v>2018</v>
       </c>
       <c r="E21">
-        <v>1.67176973076042</v>
+        <v>1.842797144428188</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>43145</v>
+        <v>43053</v>
       </c>
       <c r="B22">
+        <v>2017</v>
+      </c>
+      <c r="C22">
+        <v>1.946965557828384</v>
+      </c>
+      <c r="D22">
         <v>2018</v>
       </c>
-      <c r="C22">
-        <v>1.651937828695615</v>
-      </c>
-      <c r="D22">
-        <v>2019</v>
-      </c>
       <c r="E22">
-        <v>1.63821551487775</v>
+        <v>1.755491062323111</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>43235</v>
+        <v>43145</v>
       </c>
       <c r="B23">
         <v>2018</v>
       </c>
       <c r="C23">
-        <v>1.646565058924154</v>
+        <v>1.131202984360957</v>
       </c>
       <c r="D23">
         <v>2019</v>
       </c>
       <c r="E23">
-        <v>1.636439239090515</v>
+        <v>1.657737120813452</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>43326</v>
+        <v>43235</v>
       </c>
       <c r="B24">
         <v>2018</v>
       </c>
       <c r="C24">
-        <v>1.642460763882414</v>
+        <v>1.241332692055597</v>
       </c>
       <c r="D24">
         <v>2019</v>
       </c>
       <c r="E24">
-        <v>1.62621273827539</v>
+        <v>1.58004210678635</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>43418</v>
+        <v>43326</v>
       </c>
       <c r="B25">
         <v>2018</v>
       </c>
       <c r="C25">
-        <v>1.641178243814534</v>
+        <v>1.260396653238383</v>
       </c>
       <c r="D25">
         <v>2019</v>
       </c>
       <c r="E25">
-        <v>1.603287858019664</v>
+        <v>1.567743002885069</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>43510</v>
+        <v>43418</v>
       </c>
       <c r="B26">
+        <v>2018</v>
+      </c>
+      <c r="C26">
+        <v>1.06432145354225</v>
+      </c>
+      <c r="D26">
         <v>2019</v>
       </c>
-      <c r="C26">
-        <v>1.504616869537312</v>
-      </c>
-      <c r="D26">
-        <v>2020</v>
-      </c>
       <c r="E26">
-        <v>1.599505522959732</v>
+        <v>0.776718238020746</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>43600</v>
+        <v>43510</v>
       </c>
       <c r="B27">
         <v>2019</v>
       </c>
       <c r="C27">
-        <v>1.619750436871126</v>
+        <v>0.5757500748109434</v>
       </c>
       <c r="D27">
         <v>2020</v>
       </c>
       <c r="E27">
-        <v>1.669486277487398</v>
+        <v>1.030688008679626</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>43691</v>
+        <v>43600</v>
       </c>
       <c r="B28">
         <v>2019</v>
       </c>
       <c r="C28">
-        <v>1.242963308065193</v>
+        <v>1.592885137608979</v>
       </c>
       <c r="D28">
         <v>2020</v>
       </c>
       <c r="E28">
-        <v>1.082447181878954</v>
+        <v>1.604795846351514</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>43783</v>
+        <v>43691</v>
       </c>
       <c r="B29">
         <v>2019</v>
       </c>
       <c r="C29">
-        <v>1.183163144818633</v>
+        <v>1.308235387832934</v>
       </c>
       <c r="D29">
         <v>2020</v>
       </c>
       <c r="E29">
-        <v>0.8408455317168162</v>
+        <v>1.242807488305719</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>43875</v>
+        <v>43783</v>
       </c>
       <c r="B30">
+        <v>2019</v>
+      </c>
+      <c r="C30">
+        <v>1.361817904277696</v>
+      </c>
+      <c r="D30">
         <v>2020</v>
       </c>
-      <c r="C30">
-        <v>0.6216637650511503</v>
-      </c>
-      <c r="D30">
-        <v>2021</v>
-      </c>
       <c r="E30">
-        <v>1.126729649114599</v>
+        <v>1.316199564471554</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>43966</v>
+        <v>43875</v>
       </c>
       <c r="B31">
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>0.2954364073068261</v>
+        <v>0.9437384066259158</v>
       </c>
       <c r="D31">
         <v>2021</v>
       </c>
       <c r="E31">
-        <v>0.8326407735962826</v>
+        <v>0.904959070968947</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>44068</v>
+        <v>43966</v>
       </c>
       <c r="B32">
         <v>2020</v>
       </c>
       <c r="C32">
-        <v>-3.662861831460751</v>
+        <v>-2.015335584265165</v>
       </c>
       <c r="D32">
         <v>2021</v>
       </c>
       <c r="E32">
-        <v>-1.110565553434917</v>
+        <v>-1.215549235925828</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>44159</v>
+        <v>44068</v>
       </c>
       <c r="B33">
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>-3.662861831460751</v>
+        <v>-5.210209911466245</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>-1.875058665585216</v>
+        <v>-2.349089443609143</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>44251</v>
+        <v>44159</v>
       </c>
       <c r="B34">
+        <v>2020</v>
+      </c>
+      <c r="C34">
+        <v>-4.352425014431304</v>
+      </c>
+      <c r="D34">
         <v>2021</v>
       </c>
-      <c r="C34">
-        <v>-3.604628722764358</v>
-      </c>
-      <c r="D34">
-        <v>2022</v>
-      </c>
       <c r="E34">
-        <v>-2.856219939917704</v>
+        <v>0.03547044462246518</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>44341</v>
+        <v>44251</v>
       </c>
       <c r="B35">
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>-1.564297238929013</v>
+        <v>-4.454337270215236</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>0.1548119563699935</v>
+        <v>-3.012953608516933</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>44432</v>
+        <v>44341</v>
       </c>
       <c r="B36">
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>0.1010915562932313</v>
+        <v>-3.579597300369253</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>6.64637963114707</v>
+        <v>-1.403103901755631</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>44525</v>
+        <v>44432</v>
       </c>
       <c r="B37">
         <v>2021</v>
       </c>
       <c r="C37">
-        <v>0.1010915562932313</v>
+        <v>-1.897775264882628</v>
       </c>
       <c r="D37">
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>5.03478667886097</v>
+        <v>4.997412520017441</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>44617</v>
+        <v>44525</v>
       </c>
       <c r="B38">
+        <v>2021</v>
+      </c>
+      <c r="C38">
+        <v>-1.761645650979182</v>
+      </c>
+      <c r="D38">
         <v>2022</v>
       </c>
-      <c r="C38">
-        <v>5.220550987750228</v>
-      </c>
-      <c r="D38">
-        <v>2023</v>
-      </c>
       <c r="E38">
-        <v>1.043506288584606</v>
+        <v>3.765721202592909</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>44706</v>
+        <v>44617</v>
       </c>
       <c r="B39">
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>5.937304773291885</v>
+        <v>3.304925622412869</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>2.150399152794202</v>
+        <v>-0.4653479251390702</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>44798</v>
+        <v>44706</v>
       </c>
       <c r="B40">
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>5.793673192389748</v>
+        <v>4.461954539041502</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>1.728278600643907</v>
+        <v>0.7797949948739058</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>44890</v>
+        <v>44798</v>
       </c>
       <c r="B41">
         <v>2022</v>
       </c>
       <c r="C41">
-        <v>5.793673192389748</v>
+        <v>4.787836378515364</v>
       </c>
       <c r="D41">
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>2.399708479013141</v>
+        <v>1.112953228460167</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>44981</v>
+        <v>44890</v>
       </c>
       <c r="B42">
+        <v>2022</v>
+      </c>
+      <c r="C42">
+        <v>5.20787683103745</v>
+      </c>
+      <c r="D42">
         <v>2023</v>
       </c>
-      <c r="C42">
-        <v>0.156542203858212</v>
-      </c>
-      <c r="D42">
-        <v>2024</v>
-      </c>
       <c r="E42">
-        <v>2.138492443986739</v>
+        <v>3.217995704408838</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45071</v>
+        <v>44981</v>
       </c>
       <c r="B43">
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>-0.2621830498131694</v>
+        <v>-0.5032298616872488</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>1.878976297039481</v>
+        <v>0.34496349151385</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45163</v>
+        <v>45071</v>
       </c>
       <c r="B44">
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>-0.3788601787194756</v>
+        <v>-1.305206755692701</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>2.181307424743695</v>
+        <v>0.5821000732047832</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45254</v>
+        <v>45163</v>
       </c>
       <c r="B45">
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>-0.3788601787194756</v>
+        <v>-0.49899188013105</v>
       </c>
       <c r="D45">
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>0.8520283695166997</v>
+        <v>2.610266500707703</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45345</v>
+        <v>45254</v>
       </c>
       <c r="B46">
+        <v>2023</v>
+      </c>
+      <c r="C46">
+        <v>-0.9008525709169546</v>
+      </c>
+      <c r="D46">
         <v>2024</v>
       </c>
-      <c r="C46">
-        <v>0.005756553697899847</v>
-      </c>
-      <c r="D46">
-        <v>2025</v>
-      </c>
       <c r="E46">
-        <v>-0.1096192596443557</v>
+        <v>0.6027009207580036</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45436</v>
+        <v>45345</v>
       </c>
       <c r="B47">
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>0.0512320434504332</v>
+        <v>0.2229020320597241</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>0.2660756331863467</v>
+        <v>-0.08457672677967265</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45534</v>
+        <v>45436</v>
       </c>
       <c r="B48">
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>0.05771202657300911</v>
+        <v>0.0845726262934221</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>0.2051249733294291</v>
+        <v>0.1341520870597357</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45618</v>
+        <v>45534</v>
       </c>
       <c r="B49">
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>0.05771202657300911</v>
+        <v>0.5084754301873051</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>0.299857156820571</v>
+        <v>0.0148008406940292</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45713</v>
+        <v>45618</v>
       </c>
       <c r="B50">
+        <v>2024</v>
+      </c>
+      <c r="C50">
+        <v>0.2738544794132824</v>
+      </c>
+      <c r="D50">
         <v>2025</v>
       </c>
-      <c r="C50">
-        <v>0.4540776569412763</v>
-      </c>
-      <c r="D50">
-        <v>2026</v>
-      </c>
       <c r="E50">
-        <v>-0.1815195499670796</v>
+        <v>0.2681899963140832</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45800</v>
+        <v>45713</v>
       </c>
       <c r="B51">
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>0.5998844096825495</v>
+        <v>0.2312068876759277</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>0.1733734969819434</v>
+        <v>-0.4074819591325718</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45891</v>
+        <v>45800</v>
       </c>
       <c r="B52">
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>0.6062046309774693</v>
+        <v>0.9724700385226326</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>0.3877310837361314</v>
+        <v>0.6236501628417823</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="2">
+        <v>45891</v>
+      </c>
+      <c r="B53">
+        <v>2025</v>
+      </c>
+      <c r="C53">
+        <v>0.9584581489103794</v>
+      </c>
+      <c r="D53">
+        <v>2026</v>
+      </c>
+      <c r="E53">
+        <v>0.6809779381435677</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PRIVCON_yoy_AVERAGE_10_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PRIVCON_yoy_AVERAGE_10_9_full.xlsx
@@ -950,13 +950,13 @@
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>-5.210209911466245</v>
+        <v>-7.039580829602599</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>-2.349089443609143</v>
+        <v>-9.8517087047166</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -973,7 +973,7 @@
         <v>2021</v>
       </c>
       <c r="E34">
-        <v>0.03547044462246518</v>
+        <v>0.9348518890383684</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -984,13 +984,13 @@
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>-4.454337270215236</v>
+        <v>-2.824222064391513</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>-3.012953608516933</v>
+        <v>-1.614002587018648</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1001,13 +1001,13 @@
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>-3.579597300369253</v>
+        <v>-5.665308402785496</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>-1.403103901755631</v>
+        <v>-4.458023117238197</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1018,13 +1018,13 @@
         <v>2021</v>
       </c>
       <c r="C37">
-        <v>-1.897775264882628</v>
+        <v>-3.576917127357704</v>
       </c>
       <c r="D37">
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>4.997412520017441</v>
+        <v>-1.507094401446341</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1041,7 +1041,7 @@
         <v>2022</v>
       </c>
       <c r="E38">
-        <v>3.765721202592909</v>
+        <v>5.161235657134777</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1052,13 +1052,13 @@
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>3.304925622412869</v>
+        <v>2.828271820504558</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>-0.4653479251390702</v>
+        <v>-0.6956600178888661</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1069,13 +1069,13 @@
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>4.461954539041502</v>
+        <v>3.55216262984841</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>0.7797949948739058</v>
+        <v>-0.553429447819942</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1086,13 +1086,13 @@
         <v>2022</v>
       </c>
       <c r="C41">
-        <v>4.787836378515364</v>
+        <v>4.837108932100898</v>
       </c>
       <c r="D41">
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>1.112953228460167</v>
+        <v>0.7337317298176327</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1109,7 +1109,7 @@
         <v>2023</v>
       </c>
       <c r="E42">
-        <v>3.217995704408838</v>
+        <v>2.430255857698493</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1120,13 +1120,13 @@
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>-0.5032298616872488</v>
+        <v>1.970682684900016</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>0.34496349151385</v>
+        <v>5.462250257438339</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1137,13 +1137,13 @@
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>-1.305206755692701</v>
+        <v>-1.174920835225968</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>0.5821000732047832</v>
+        <v>0.1140263184959966</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1154,13 +1154,13 @@
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>-0.49899188013105</v>
+        <v>-0.440616923475845</v>
       </c>
       <c r="D45">
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>2.610266500707703</v>
+        <v>1.366292825135784</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1177,7 +1177,7 @@
         <v>2024</v>
       </c>
       <c r="E46">
-        <v>0.6027009207580036</v>
+        <v>1.982587461121343</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1188,13 +1188,13 @@
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>0.2229020320597241</v>
+        <v>1.058598619486295</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>-0.08457672677967265</v>
+        <v>2.37789296420865</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1205,13 +1205,13 @@
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>0.0845726262934221</v>
+        <v>0.02017133142708794</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>0.1341520870597357</v>
+        <v>-0.3342090768664097</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1222,13 +1222,13 @@
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>0.5084754301873051</v>
+        <v>0.5138342970629539</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>0.0148008406940292</v>
+        <v>0.3554489813896833</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1245,7 +1245,7 @@
         <v>2025</v>
       </c>
       <c r="E50">
-        <v>0.2681899963140832</v>
+        <v>-0.108077553478092</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1256,13 +1256,13 @@
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>0.2312068876759277</v>
+        <v>0.2382702494847289</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>-0.4074819591325718</v>
+        <v>-0.01234339085522951</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1273,13 +1273,13 @@
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>0.9724700385226326</v>
+        <v>0.7917104405398501</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>0.6236501628417823</v>
+        <v>-0.1189552196680044</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1290,13 +1290,13 @@
         <v>2025</v>
       </c>
       <c r="C53">
-        <v>0.9584581489103794</v>
+        <v>0.9785056085252597</v>
       </c>
       <c r="D53">
         <v>2026</v>
       </c>
       <c r="E53">
-        <v>0.6809779381435677</v>
+        <v>0.5647443720418144</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PRIVCON_yoy_AVERAGE_10_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PRIVCON_yoy_AVERAGE_10_9_full.xlsx
@@ -422,14 +422,8 @@
       <c r="B2">
         <v>2007</v>
       </c>
-      <c r="C2">
-        <v>0.4235526809466261</v>
-      </c>
       <c r="D2">
         <v>2008</v>
-      </c>
-      <c r="E2">
-        <v>0.6439341879002525</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -439,14 +433,11 @@
       <c r="B3">
         <v>2008</v>
       </c>
-      <c r="C3">
-        <v>-0.3623658873974311</v>
-      </c>
       <c r="D3">
         <v>2009</v>
       </c>
       <c r="E3">
-        <v>0.1825419310453658</v>
+        <v>0.1825419310453436</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -456,14 +447,11 @@
       <c r="B4">
         <v>2008</v>
       </c>
-      <c r="C4">
-        <v>-0.5718076928962645</v>
-      </c>
       <c r="D4">
         <v>2009</v>
       </c>
       <c r="E4">
-        <v>-0.1800933741311961</v>
+        <v>-0.180093374131185</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -491,7 +479,7 @@
         <v>2009</v>
       </c>
       <c r="C6">
-        <v>0.3486139762225005</v>
+        <v>0.348613976222456</v>
       </c>
       <c r="D6">
         <v>2010</v>
@@ -525,7 +513,7 @@
         <v>2010</v>
       </c>
       <c r="C8">
-        <v>-0.1384957661262898</v>
+        <v>-0.1384957661262676</v>
       </c>
       <c r="D8">
         <v>2011</v>
@@ -542,7 +530,7 @@
         <v>2011</v>
       </c>
       <c r="C9">
-        <v>1.692932643509848</v>
+        <v>1.692932643509826</v>
       </c>
       <c r="D9">
         <v>2012</v>
@@ -559,7 +547,7 @@
         <v>2011</v>
       </c>
       <c r="C10">
-        <v>1.566479473280147</v>
+        <v>1.566479473280191</v>
       </c>
       <c r="D10">
         <v>2012</v>
@@ -576,7 +564,7 @@
         <v>2012</v>
       </c>
       <c r="C11">
-        <v>1.020829760720643</v>
+        <v>1.020829760720687</v>
       </c>
       <c r="D11">
         <v>2013</v>
@@ -593,7 +581,7 @@
         <v>2012</v>
       </c>
       <c r="C12">
-        <v>0.7307568962936939</v>
+        <v>0.7307568962937161</v>
       </c>
       <c r="D12">
         <v>2013</v>
@@ -616,7 +604,7 @@
         <v>2014</v>
       </c>
       <c r="E13">
-        <v>1.258913537332895</v>
+        <v>1.258913537332873</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -627,13 +615,13 @@
         <v>2013</v>
       </c>
       <c r="C14">
-        <v>0.818818812164257</v>
+        <v>0.8188188121642126</v>
       </c>
       <c r="D14">
         <v>2014</v>
       </c>
       <c r="E14">
-        <v>0.9607602172681418</v>
+        <v>0.960760217268164</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -644,7 +632,7 @@
         <v>2014</v>
       </c>
       <c r="C15">
-        <v>1.019715257608911</v>
+        <v>1.019715257608933</v>
       </c>
       <c r="D15">
         <v>2015</v>
@@ -667,7 +655,7 @@
         <v>2015</v>
       </c>
       <c r="E16">
-        <v>1.375398114243209</v>
+        <v>1.375398114243231</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -678,13 +666,13 @@
         <v>2015</v>
       </c>
       <c r="C17">
-        <v>2.173959184500385</v>
+        <v>2.173959184500363</v>
       </c>
       <c r="D17">
         <v>2016</v>
       </c>
       <c r="E17">
-        <v>1.566646323486043</v>
+        <v>1.566646323486065</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -695,13 +683,13 @@
         <v>2015</v>
       </c>
       <c r="C18">
-        <v>1.984684278296656</v>
+        <v>1.9846842782967</v>
       </c>
       <c r="D18">
         <v>2016</v>
       </c>
       <c r="E18">
-        <v>1.473274087935805</v>
+        <v>1.47327408793585</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -712,7 +700,7 @@
         <v>2016</v>
       </c>
       <c r="C19">
-        <v>1.707434489469994</v>
+        <v>1.707434489470039</v>
       </c>
       <c r="D19">
         <v>2017</v>
@@ -735,7 +723,7 @@
         <v>2017</v>
       </c>
       <c r="E20">
-        <v>1.681032827388362</v>
+        <v>1.681032827388385</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -746,13 +734,13 @@
         <v>2017</v>
       </c>
       <c r="C21">
-        <v>1.456988786619839</v>
+        <v>1.456988786619817</v>
       </c>
       <c r="D21">
         <v>2018</v>
       </c>
       <c r="E21">
-        <v>1.842797144428188</v>
+        <v>1.84279714442821</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -786,7 +774,7 @@
         <v>2019</v>
       </c>
       <c r="E23">
-        <v>1.657737120813452</v>
+        <v>1.657737120813474</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -803,7 +791,7 @@
         <v>2019</v>
       </c>
       <c r="E24">
-        <v>1.58004210678635</v>
+        <v>1.580042106786372</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -814,7 +802,7 @@
         <v>2018</v>
       </c>
       <c r="C25">
-        <v>1.260396653238383</v>
+        <v>1.260396653238427</v>
       </c>
       <c r="D25">
         <v>2019</v>
@@ -831,13 +819,13 @@
         <v>2018</v>
       </c>
       <c r="C26">
-        <v>1.06432145354225</v>
+        <v>1.064321453542272</v>
       </c>
       <c r="D26">
         <v>2019</v>
       </c>
       <c r="E26">
-        <v>0.776718238020746</v>
+        <v>0.7767182380207682</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -871,7 +859,7 @@
         <v>2020</v>
       </c>
       <c r="E28">
-        <v>1.604795846351514</v>
+        <v>1.604795846351492</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -888,7 +876,7 @@
         <v>2020</v>
       </c>
       <c r="E29">
-        <v>1.242807488305719</v>
+        <v>1.242807488305697</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -899,7 +887,7 @@
         <v>2019</v>
       </c>
       <c r="C30">
-        <v>1.361817904277696</v>
+        <v>1.361817904277718</v>
       </c>
       <c r="D30">
         <v>2020</v>
@@ -922,7 +910,7 @@
         <v>2021</v>
       </c>
       <c r="E31">
-        <v>0.904959070968947</v>
+        <v>0.9049590709689692</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -939,7 +927,7 @@
         <v>2021</v>
       </c>
       <c r="E32">
-        <v>-1.215549235925828</v>
+        <v>-1.215549235925817</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -950,13 +938,13 @@
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>-7.039580829602599</v>
+        <v>-7.03958082960261</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>-9.8517087047166</v>
+        <v>-9.851708704716611</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -967,13 +955,13 @@
         <v>2020</v>
       </c>
       <c r="C34">
-        <v>-4.352425014431304</v>
+        <v>-4.352425014431327</v>
       </c>
       <c r="D34">
         <v>2021</v>
       </c>
       <c r="E34">
-        <v>0.9348518890383684</v>
+        <v>0.9348518890383906</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -984,13 +972,13 @@
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>-2.824222064391513</v>
+        <v>-2.824222064391535</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>-1.614002587018648</v>
+        <v>-1.61400258701867</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1001,13 +989,13 @@
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>-5.665308402785496</v>
+        <v>-5.665308402785508</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>-4.458023117238197</v>
+        <v>-4.458023117238186</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1024,7 +1012,7 @@
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>-1.507094401446341</v>
+        <v>-1.507094401446352</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1041,7 +1029,7 @@
         <v>2022</v>
       </c>
       <c r="E38">
-        <v>5.161235657134777</v>
+        <v>5.161235657134755</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1052,7 +1040,7 @@
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>2.828271820504558</v>
+        <v>2.828271820504513</v>
       </c>
       <c r="D39">
         <v>2023</v>
@@ -1075,7 +1063,7 @@
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>-0.553429447819942</v>
+        <v>-0.5534294478199198</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1092,7 +1080,7 @@
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>0.7337317298176327</v>
+        <v>0.7337317298176549</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1109,7 +1097,7 @@
         <v>2023</v>
       </c>
       <c r="E42">
-        <v>2.430255857698493</v>
+        <v>2.430255857698516</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1120,13 +1108,13 @@
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>1.970682684900016</v>
+        <v>1.970682684899994</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>5.462250257438339</v>
+        <v>5.462250257438317</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1137,13 +1125,13 @@
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>-1.174920835225968</v>
+        <v>-1.17492083522599</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>0.1140263184959966</v>
+        <v>0.1140263184959744</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1171,13 +1159,13 @@
         <v>2023</v>
       </c>
       <c r="C46">
-        <v>-0.9008525709169546</v>
+        <v>-0.9008525709169657</v>
       </c>
       <c r="D46">
         <v>2024</v>
       </c>
       <c r="E46">
-        <v>1.982587461121343</v>
+        <v>1.982587461121321</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1188,7 +1176,7 @@
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>1.058598619486295</v>
+        <v>1.058598619486273</v>
       </c>
       <c r="D47">
         <v>2025</v>
@@ -1205,13 +1193,13 @@
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>0.02017133142708794</v>
+        <v>0.02017133142706573</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>-0.3342090768664097</v>
+        <v>-0.3342090768663986</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1222,7 +1210,7 @@
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>0.5138342970629539</v>
+        <v>0.5138342970629317</v>
       </c>
       <c r="D49">
         <v>2025</v>
@@ -1239,7 +1227,7 @@
         <v>2024</v>
       </c>
       <c r="C50">
-        <v>0.2738544794132824</v>
+        <v>0.2738544794132602</v>
       </c>
       <c r="D50">
         <v>2025</v>
@@ -1256,13 +1244,13 @@
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>0.2382702494847289</v>
+        <v>0.2382702494847733</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>-0.01234339085522951</v>
+        <v>-0.01234339085524061</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1279,7 +1267,7 @@
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>-0.1189552196680044</v>
+        <v>-0.1189552196680155</v>
       </c>
     </row>
     <row r="53" spans="1:5">

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PRIVCON_yoy_AVERAGE_10_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PRIVCON_yoy_AVERAGE_10_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1287,6 +1287,23 @@
         <v>0.5647443720418144</v>
       </c>
     </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="2">
+        <v>45986</v>
+      </c>
+      <c r="B54">
+        <v>2025</v>
+      </c>
+      <c r="C54">
+        <v>0.8976398032236155</v>
+      </c>
+      <c r="D54">
+        <v>2026</v>
+      </c>
+      <c r="E54">
+        <v>0.4275768375374467</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
